--- a/Basics/testbyexcel/case.xlsx
+++ b/Basics/testbyexcel/case.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="企业表" sheetId="1" r:id="rId4"/>
-    <sheet name="登录" sheetId="2" r:id="rId5"/>
+    <sheet name="企业表" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>企业名</t>
   </si>
@@ -68,31 +71,101 @@
     <t>type</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>kw</t>
   </si>
   <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>python</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>arget_by</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>arget_value</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>et_title</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>uit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -100,14 +173,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -130,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,90 +333,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -467,7 +575,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -476,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -485,7 +593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -559,7 +667,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -567,7 +675,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -586,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,7 +828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,9 +945,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -854,7 +968,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -862,7 +976,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -881,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,9 +1242,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1144,7 +1264,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1163,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,125 +1534,127 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1540,8 +1662,9 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1549,118 +1672,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:IX11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="14.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.59375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.1016" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="4" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
+    <col min="3" max="258" width="16.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="5">
+    <row r="1" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" t="s" s="10">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" t="s" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Basics/testbyexcel/case.xlsx
+++ b/Basics/testbyexcel/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>企业名</t>
   </si>
@@ -71,35 +71,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>kw</t>
-  </si>
-  <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -132,41 +104,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>et_title</t>
-    </r>
+    <t>华为</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>uit</t>
-    </r>
+    <t>class</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input-group-btn</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchBar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,6 +140,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -205,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,24 +300,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -358,7 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -369,8 +322,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1676,17 +1629,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX11"/>
+  <dimension ref="A1:IX8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="14.85" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="258" width="16.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1703,11 +1656,11 @@
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>25</v>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>16</v>
@@ -1715,118 +1668,85 @@
     </row>
     <row r="2" spans="1:7" ht="14.65" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+    <row r="3" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="8"/>
+    <row r="4" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Basics/testbyexcel/case.xlsx
+++ b/Basics/testbyexcel/case.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="企业表" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="企业表" sheetId="1" r:id="rId4"/>
+    <sheet name="登录" sheetId="2" r:id="rId5"/>
+    <sheet name="工作表 1" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>企业名</t>
   </si>
@@ -65,107 +63,76 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>d</t>
+      <t>target_by</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>arget_by</t>
+      <t>target_value</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+  </si>
+  <si>
+    <t>verify_field</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>arget_value</t>
+      <t>id</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>et_title</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>uit</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>无聊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -173,19 +140,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,18 +159,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -215,241 +186,258 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -575,7 +563,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -593,9 +581,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -667,7 +655,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -675,7 +663,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -694,19 +682,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -724,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -750,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,15 +933,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -968,15 +950,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -995,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,15 +1224,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1264,7 +1240,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1283,19 +1259,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1313,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,127 +1510,125 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1662,9 +1636,8 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1672,161 +1645,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="14.85" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.85" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
-    <col min="3" max="258" width="16.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.1719" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.1719" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="4" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="14.65" customHeight="1">
+      <c r="A1" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.65" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B3" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" ht="14.45" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" ht="14.45" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" ht="14.45" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="14.45" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="19" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="19" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="19" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="F1" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.65" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
